--- a/MEMOIREJFM2021.xlsx
+++ b/MEMOIREJFM2021.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\admin\OneDrive - ATFP\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E8A9FB-6D12-4AC9-A831-B849B5927412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DFCDA1-5E7D-4FC0-9BF5-FD6C74C69CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JFM" sheetId="24" r:id="rId1"/>
-    <sheet name="AMJ" sheetId="25" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="26" r:id="rId2"/>
+    <sheet name="AMJ" sheetId="25" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -331,7 +332,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -391,10 +392,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646CDA22-5E37-4C32-B1D0-1AD02DE69941}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -2372,6 +2373,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B063225B-7BD3-4D0F-A2DA-B2561C9E9C09}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>+A1+B1</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5142250-2C28-4DB6-A9E1-3F97E31874C2}">
   <dimension ref="A1:L48"/>
   <sheetViews>
